--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1282467.447170783</v>
+        <v>-1285345.274503243</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7240079450978</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>80.29920053325399</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4067386598798</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>252.4269367961491</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>130.9378353374121</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>99.11970265916557</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.36189168600487</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>293.2746752310199</v>
+        <v>293.039018234317</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>70.26541886851864</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>67.41850321461121</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>197.6600124601322</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.1940563011266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>166.7052104937048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>86.31905401061485</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>353.1459972433406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2152140927927</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>74.91313796759033</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -1813,7 +1813,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>107.636153307837</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.316802071374</v>
+        <v>112.6849016609953</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>260.3889544982751</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>73.78331078915295</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3244002084041</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>53.30076123484837</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>97.77174959685436</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9884800080869</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541846</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1156.179761166176</v>
+        <v>1679.795701438247</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.179761166176</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D2" t="n">
-        <v>797.9140625594257</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230298</v>
+        <v>2066.395541502369</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>528.604248231895</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>528.604248231895</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>528.604248231895</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>528.604248231895</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>528.604248231895</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X4" t="n">
-        <v>528.604248231895</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.01781586839</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>920.0552989279781</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>920.0552989279781</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>534.2670463297338</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>527.3215455805304</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>513.3981415191213</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>186.2034215551241</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005474</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="E7" t="n">
-        <v>325.5314024181542</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="F7" t="n">
-        <v>178.6414549202439</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>101.7832764526926</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>101.7832764526926</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683986</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.818078743575</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.552380136824</v>
+        <v>1634.354746806821</v>
       </c>
       <c r="E8" t="n">
-        <v>844.7641275385799</v>
+        <v>1248.566494208577</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4902,28 +4902,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>657.1538136321732</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>429.8456263007749</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>429.8456263007749</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>429.8456263007749</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5039,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>422.5594898197622</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>892.189873607444</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1511.709654113219</v>
       </c>
       <c r="M11" t="n">
         <v>2232.714216052256</v>
@@ -5069,16 +5069,16 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
         <v>3094.968680767669</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3254056113306</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>915.0577384550818</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.076092707209</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.01671637278</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
-        <v>2287.893191372974</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.780669592131</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.7159540289935</v>
+        <v>1099.390323855922</v>
       </c>
       <c r="C13" t="n">
-        <v>615.3268525202008</v>
+        <v>930.454140928015</v>
       </c>
       <c r="D13" t="n">
-        <v>465.210213107865</v>
+        <v>780.3375015156793</v>
       </c>
       <c r="E13" t="n">
-        <v>465.210213107865</v>
+        <v>632.4244079332861</v>
       </c>
       <c r="F13" t="n">
-        <v>318.3202656099546</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
         <v>318.3202656099546</v>
@@ -5221,28 +5221,28 @@
         <v>2429.380814232059</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.380814232059</v>
+        <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.210623970989</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.531841685371</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.455628000098</v>
+        <v>1871.481532996787</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.771139794211</v>
+        <v>1616.7970447909</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.353969757251</v>
+        <v>1327.379874753939</v>
       </c>
       <c r="X13" t="n">
-        <v>965.3644188592332</v>
+        <v>1099.390323855922</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.3644188592332</v>
+        <v>1099.390323855922</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C14" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D14" t="n">
         <v>1591.001293180573</v>
@@ -5279,25 +5279,25 @@
         <v>373.3125385470848</v>
       </c>
       <c r="K14" t="n">
-        <v>892.189873607444</v>
+        <v>842.9429223347665</v>
       </c>
       <c r="L14" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M14" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N14" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O14" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P14" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q14" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.502413949178</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,16 +5312,16 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W14" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3254056113306</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0577384550818</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.076092707209</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N15" t="n">
-        <v>1507.076092707209</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.952567707403</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.536086133479</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.780669592131</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>715.8566089874947</v>
+        <v>790.3034120689312</v>
       </c>
       <c r="C16" t="n">
-        <v>546.9204260595878</v>
+        <v>621.3672291410243</v>
       </c>
       <c r="D16" t="n">
-        <v>546.9204260595878</v>
+        <v>471.2505897286885</v>
       </c>
       <c r="E16" t="n">
-        <v>399.0073324771947</v>
+        <v>323.3374961462954</v>
       </c>
       <c r="F16" t="n">
-        <v>252.1173849792844</v>
+        <v>176.447548648385</v>
       </c>
       <c r="G16" t="n">
-        <v>252.1173849792844</v>
+        <v>176.447548648385</v>
       </c>
       <c r="H16" t="n">
         <v>176.447548648385</v>
@@ -5461,25 +5461,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.35127892949</v>
+        <v>2252.798082010927</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.672496643873</v>
+        <v>2033.119299725309</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.596282958599</v>
+        <v>1744.043086040036</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.911794752712</v>
+        <v>1489.358597834149</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.494624715752</v>
+        <v>1199.941427797188</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5050738177345</v>
+        <v>971.9518768991709</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.5050738177345</v>
+        <v>971.9518768991709</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035997</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1897.296768897751</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1642.612280691864</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1353.195110654903</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>614.6217844681063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.062828441876</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>796.270249298346</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625314</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7425191625314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7425191625314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910542</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>782.4567403631473</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>632.3401009508116</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.4270073684185</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>337.5370598705081</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199802</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264824</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121294</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,22 +7114,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>49.74439522492668</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>49.74439522492656</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.2063621271639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>351.6254838432615</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>210.5083313076048</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>43.73880029013912</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.537044377341999</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5416106049230791</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>199.8663975378056</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>65.54085182436359</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.70233505062191</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.26785128072083</v>
+        <v>105.8997516910995</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>25.79551989096905</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>78.25894333073138</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.3852551806331</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>86.99395161137551</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.9379057921828</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>64.53565828418192</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-8.262279876946173e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1255131.52117906</v>
+        <v>1255131.521179061</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135636.1012370107</v>
+        <v>135636.1012370106</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
         <v>161312.1256772246</v>
       </c>
       <c r="F2" t="n">
-        <v>161312.1256772245</v>
+        <v>161312.1256772246</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
@@ -26335,25 +26335,25 @@
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728568</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>164208.3539728568</v>
       </c>
-      <c r="N2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728567</v>
-      </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7723.906990790761</v>
+        <v>7723.906990790583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670441</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>13058.45186476391</v>
@@ -26451,7 +26451,7 @@
         <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-656714.8562865058</v>
+        <v>-657072.0094457039</v>
       </c>
       <c r="C6" t="n">
         <v>-119715.2300182843</v>
@@ -26528,40 +26528,40 @@
         <v>-119715.2300182843</v>
       </c>
       <c r="E6" t="n">
-        <v>-881745.1815065668</v>
+        <v>-881781.3843602622</v>
       </c>
       <c r="F6" t="n">
-        <v>54646.22801203052</v>
+        <v>54610.02515833518</v>
       </c>
       <c r="G6" t="n">
-        <v>47515.29052163291</v>
+        <v>47480.55259619741</v>
       </c>
       <c r="H6" t="n">
-        <v>55239.19751242366</v>
+        <v>55204.45958698797</v>
       </c>
       <c r="I6" t="n">
-        <v>55239.19751242366</v>
+        <v>55204.45958698797</v>
       </c>
       <c r="J6" t="n">
-        <v>-121184.0216801693</v>
+        <v>-121218.7596056049</v>
       </c>
       <c r="K6" t="n">
-        <v>55239.19751242366</v>
+        <v>55204.459586988</v>
       </c>
       <c r="L6" t="n">
-        <v>28558.06826054567</v>
+        <v>28558.06826054564</v>
       </c>
       <c r="M6" t="n">
-        <v>-76222.72445388103</v>
+        <v>-76222.72445388106</v>
       </c>
       <c r="N6" t="n">
+        <v>47985.78625417751</v>
+      </c>
+      <c r="O6" t="n">
+        <v>47985.78625417745</v>
+      </c>
+      <c r="P6" t="n">
         <v>47985.78625417748</v>
-      </c>
-      <c r="O6" t="n">
-        <v>47985.78625417734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>47985.78625417745</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.15868617753347</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>95.43040681519477</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>34.09606154044195</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.9934809074492</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>152.1044648491237</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>43.85831389017028</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>87.60373010633336</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>113.6013705106915</v>
+        <v>113.8370275073944</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>141.8801200815003</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>151.1661501374836</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>367.6453723515867</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0369088927407</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256867</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>316.6133175811573</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>658.2124561388958</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>687.9583686879457</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724565</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>548.8125296967492</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>332.0634613856469</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35416,7 +35416,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>236.3036602682535</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>524.1185202629891</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>177.1017560095107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.05513480671915</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113564</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,10 +36367,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>174.479283659139</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>526.8707440555626</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>545.8243347659273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>159.048271228012</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>414.838122282419</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
